--- a/biology/Zoologie/Chelydra/Chelydra.xlsx
+++ b/biology/Zoologie/Chelydra/Chelydra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chelydra est un genre de tortue de la famille des Chelydridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chelydra est un genre de tortue de la famille des Chelydridae.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les trois espèces de ce genre se rencontrent en Amérique du Nord, en Amérique centrale, en Colombie. Elles ont été introduites en Chine, au Japon, à Taïwan et dans certains États de l’ouest des États-Unis[1].
-On en trouve aussi en France métropolitaine, Chelydra serpentina étant présente en 2016 surtout en Occitanie et en Nouvelle-Aquitaine dans le département de la Gironde[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les trois espèces de ce genre se rencontrent en Amérique du Nord, en Amérique centrale, en Colombie. Elles ont été introduites en Chine, au Japon, à Taïwan et dans certains États de l’ouest des États-Unis.
+On en trouve aussi en France métropolitaine, Chelydra serpentina étant présente en 2016 surtout en Occitanie et en Nouvelle-Aquitaine dans le département de la Gironde.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon TFTSG  (27 mai 2011)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon TFTSG  (27 mai 2011) :
 Chelydra acutirostris Peters, 1862 ;
 Chelydra rossignonii (Bocourt, 1868) ;
 Chelydra serpentina (Linnaeus 1758).</t>
@@ -576,7 +592,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Schweigger, 1812 : Prodromus Monographia Cheloniorum auctore Schweigger. Königsberger Archiv für Naturwissenschaft und Mathematik, vol. 1, p. 271-368 &amp; 406-458 (texte intégral).</t>
         </is>
